--- a/documentos/BASE DE DATOS OPERACIONES.xlsx
+++ b/documentos/BASE DE DATOS OPERACIONES.xlsx
@@ -9,13 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Plantila BD" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Plantila BD'!$A$1:$M$93</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="822">
   <si>
     <t>APELLIDO</t>
   </si>
@@ -1469,6 +1473,1029 @@
   </si>
   <si>
     <t>16 09</t>
+  </si>
+  <si>
+    <t>mane</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>documento</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>empresa</t>
+  </si>
+  <si>
+    <t>cargo</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Karem Natalia</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Gerardo</t>
+  </si>
+  <si>
+    <t>Heins</t>
+  </si>
+  <si>
+    <t>Macedonio</t>
+  </si>
+  <si>
+    <t>Mayerli</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Aristides</t>
+  </si>
+  <si>
+    <t>Manuela</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>Luz Stella</t>
+  </si>
+  <si>
+    <t>Norma Constanza</t>
+  </si>
+  <si>
+    <t>Diego Fernando</t>
+  </si>
+  <si>
+    <t>Katherine Alexandra</t>
+  </si>
+  <si>
+    <t>Leonardo Javier</t>
+  </si>
+  <si>
+    <t>Juan Pablo</t>
+  </si>
+  <si>
+    <t>Blanca Jeannete</t>
+  </si>
+  <si>
+    <t>Erika Nayeli</t>
+  </si>
+  <si>
+    <t>Mara Rocio</t>
+  </si>
+  <si>
+    <t>Jeniffer Alejandra</t>
+  </si>
+  <si>
+    <t>Magaly Margarita</t>
+  </si>
+  <si>
+    <t>Yimmy Alonso</t>
+  </si>
+  <si>
+    <t>Yuli Andrea</t>
+  </si>
+  <si>
+    <t>Fernando Antonio</t>
+  </si>
+  <si>
+    <t>Pedro Jesus</t>
+  </si>
+  <si>
+    <t>Jose Alfredo</t>
+  </si>
+  <si>
+    <t>Luis Eduardo</t>
+  </si>
+  <si>
+    <t>María Flor</t>
+  </si>
+  <si>
+    <t>Gloria Liliana</t>
+  </si>
+  <si>
+    <t>Rolf Edwin</t>
+  </si>
+  <si>
+    <t>Paola Andrea</t>
+  </si>
+  <si>
+    <t>Manuel Enrique</t>
+  </si>
+  <si>
+    <t>Carmen Aleida</t>
+  </si>
+  <si>
+    <t>Óscar Fernando</t>
+  </si>
+  <si>
+    <t>Luis Felipe</t>
+  </si>
+  <si>
+    <t>Javier Ricardo</t>
+  </si>
+  <si>
+    <t>César Armando</t>
+  </si>
+  <si>
+    <t>Javier Mauricio</t>
+  </si>
+  <si>
+    <t>Claudia Yanira</t>
+  </si>
+  <si>
+    <t>Ángela Milena</t>
+  </si>
+  <si>
+    <t>Milton César</t>
+  </si>
+  <si>
+    <t>Laura Marcela</t>
+  </si>
+  <si>
+    <t>Yeny Fabiola</t>
+  </si>
+  <si>
+    <t>Ruby Estela</t>
+  </si>
+  <si>
+    <t>Jhoy Anderson</t>
+  </si>
+  <si>
+    <t>Gonzalo Norbey</t>
+  </si>
+  <si>
+    <t>Marco Antonio</t>
+  </si>
+  <si>
+    <t>Homer Jose</t>
+  </si>
+  <si>
+    <t>Diana Patricia</t>
+  </si>
+  <si>
+    <t>Andrés Felipe</t>
+  </si>
+  <si>
+    <t>Laureano Alberto</t>
+  </si>
+  <si>
+    <t>Wilmer Alexander</t>
+  </si>
+  <si>
+    <t>Bryan Giovanni</t>
+  </si>
+  <si>
+    <t>Robinson Estiven</t>
+  </si>
+  <si>
+    <t>Nelson Ferney</t>
+  </si>
+  <si>
+    <t>Jenny Lizeth</t>
+  </si>
+  <si>
+    <t>John Alexander</t>
+  </si>
+  <si>
+    <t>Yohana Milena</t>
+  </si>
+  <si>
+    <t>Liliana Patricia</t>
+  </si>
+  <si>
+    <t>Edwin Bernardo</t>
+  </si>
+  <si>
+    <t>Ana Lucia</t>
+  </si>
+  <si>
+    <t>Juan Felipe</t>
+  </si>
+  <si>
+    <t>Richar Giovanny</t>
+  </si>
+  <si>
+    <t>Liz karol</t>
+  </si>
+  <si>
+    <t>Ivan Camilo</t>
+  </si>
+  <si>
+    <t>Eduar Armando</t>
+  </si>
+  <si>
+    <t>Pablo Andres</t>
+  </si>
+  <si>
+    <t>Alejandra Tatiana</t>
+  </si>
+  <si>
+    <t>Doris Yolanda</t>
+  </si>
+  <si>
+    <t>Jean Carlo</t>
+  </si>
+  <si>
+    <t>Martha Patricia</t>
+  </si>
+  <si>
+    <t>Oscar Ivan</t>
+  </si>
+  <si>
+    <t>Johana Elizabeth</t>
+  </si>
+  <si>
+    <t>Juan Gabriel</t>
+  </si>
+  <si>
+    <t>Yerly Andrea</t>
+  </si>
+  <si>
+    <t>Marien Nataly</t>
+  </si>
+  <si>
+    <t>Rodrigo Alfonso</t>
+  </si>
+  <si>
+    <t>Maria Fernanda</t>
+  </si>
+  <si>
+    <t>Jhonathan Smith</t>
+  </si>
+  <si>
+    <t>Leidy Viviana</t>
+  </si>
+  <si>
+    <t>Sandra Milena</t>
+  </si>
+  <si>
+    <t>Walberto Jose</t>
+  </si>
+  <si>
+    <t>Maria Alejandra</t>
+  </si>
+  <si>
+    <t>Jenny Katherine</t>
+  </si>
+  <si>
+    <t>Adriana Marcela</t>
+  </si>
+  <si>
+    <t>Leidy Carolina</t>
+  </si>
+  <si>
+    <t>Alfonso Orozco</t>
+  </si>
+  <si>
+    <t>Triana Restrepo</t>
+  </si>
+  <si>
+    <t>Cruz Lopez</t>
+  </si>
+  <si>
+    <t>Perez Montoya</t>
+  </si>
+  <si>
+    <t>Cruz Rubio</t>
+  </si>
+  <si>
+    <t>Vargas Sanchez</t>
+  </si>
+  <si>
+    <t>Perez Molina</t>
+  </si>
+  <si>
+    <t>Salcedo Figueredo</t>
+  </si>
+  <si>
+    <t>Arias Suarez</t>
+  </si>
+  <si>
+    <t>Benavides Reina</t>
+  </si>
+  <si>
+    <t>Dueñas Rivera</t>
+  </si>
+  <si>
+    <t>Duque Santos</t>
+  </si>
+  <si>
+    <t>Acosta López</t>
+  </si>
+  <si>
+    <t>Forero Chacón</t>
+  </si>
+  <si>
+    <t>Cortés Pantoja</t>
+  </si>
+  <si>
+    <t>Coronado Rincón</t>
+  </si>
+  <si>
+    <t>Leon Sanchez</t>
+  </si>
+  <si>
+    <t>Romero Arroyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba </t>
+  </si>
+  <si>
+    <t>Ardila Niño</t>
+  </si>
+  <si>
+    <t>Ramírez Matamoros</t>
+  </si>
+  <si>
+    <t>Valencia Mesa</t>
+  </si>
+  <si>
+    <t>Marín Sáenz</t>
+  </si>
+  <si>
+    <t>Aponte Moreno</t>
+  </si>
+  <si>
+    <t>Correa Perdomo</t>
+  </si>
+  <si>
+    <t>Arango Mona</t>
+  </si>
+  <si>
+    <t>Vega Bernal</t>
+  </si>
+  <si>
+    <t>Cardozo Romero</t>
+  </si>
+  <si>
+    <t>García Guerrero</t>
+  </si>
+  <si>
+    <t>Vargas Monroy</t>
+  </si>
+  <si>
+    <t>Lagos Torres</t>
+  </si>
+  <si>
+    <t>Ávila Perdomo</t>
+  </si>
+  <si>
+    <t>Romero Rodríguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pérez </t>
+  </si>
+  <si>
+    <t>Daza Prieto</t>
+  </si>
+  <si>
+    <t>Lara Maury</t>
+  </si>
+  <si>
+    <t>Pulido Sastoque</t>
+  </si>
+  <si>
+    <t>Cuesto Diaz</t>
+  </si>
+  <si>
+    <t>Quiroz Butrón</t>
+  </si>
+  <si>
+    <t>Perilla Beltrán</t>
+  </si>
+  <si>
+    <t>Valderrama Zapata</t>
+  </si>
+  <si>
+    <t>Soto Pérez</t>
+  </si>
+  <si>
+    <t>Rosenhay Balza</t>
+  </si>
+  <si>
+    <t>Barrios Castellar</t>
+  </si>
+  <si>
+    <t>Navarro Bahamón</t>
+  </si>
+  <si>
+    <t>Ortiz Porras</t>
+  </si>
+  <si>
+    <t>Plata Sepulveda</t>
+  </si>
+  <si>
+    <t>Arbelaez Hortua</t>
+  </si>
+  <si>
+    <t>Arias Rojas</t>
+  </si>
+  <si>
+    <t>Ordoñez Daza</t>
+  </si>
+  <si>
+    <t>Rojas Rojas</t>
+  </si>
+  <si>
+    <t>Velasquez Sanchez</t>
+  </si>
+  <si>
+    <t>Quiroga Bonilla</t>
+  </si>
+  <si>
+    <t>Cediel Jimenez</t>
+  </si>
+  <si>
+    <t>Llarave Herran</t>
+  </si>
+  <si>
+    <t>Charris Suárez</t>
+  </si>
+  <si>
+    <t>Peña Vasquez</t>
+  </si>
+  <si>
+    <t>Paez Dueñas</t>
+  </si>
+  <si>
+    <t>Rivas Vanegas</t>
+  </si>
+  <si>
+    <t>Piedrahita Agudelo</t>
+  </si>
+  <si>
+    <t>Porras Moncayo</t>
+  </si>
+  <si>
+    <t>Gonzalez Arrieta</t>
+  </si>
+  <si>
+    <t>Arjona Pardo</t>
+  </si>
+  <si>
+    <t>Gomez Caceres</t>
+  </si>
+  <si>
+    <t>Fernandez Pimentel</t>
+  </si>
+  <si>
+    <t>Beltran Hernandez</t>
+  </si>
+  <si>
+    <t>Montenegro Muñoz</t>
+  </si>
+  <si>
+    <t>Sanchez Anillo</t>
+  </si>
+  <si>
+    <t>Gomez Sandoval</t>
+  </si>
+  <si>
+    <t>Polo Romero</t>
+  </si>
+  <si>
+    <t>Gamez Hernandez</t>
+  </si>
+  <si>
+    <t>Duarte Guerra</t>
+  </si>
+  <si>
+    <t>Gutierrez Roldan</t>
+  </si>
+  <si>
+    <t>Pedrozo Hoyos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Echavarria </t>
+  </si>
+  <si>
+    <t>Aranibar Hernandez</t>
+  </si>
+  <si>
+    <t>Sanchez Claro</t>
+  </si>
+  <si>
+    <t>Sanabria Macias</t>
+  </si>
+  <si>
+    <t>Gonzalez Lozano</t>
+  </si>
+  <si>
+    <t>Aguilar Ramirez</t>
+  </si>
+  <si>
+    <t>Ordoñez Ramirez</t>
+  </si>
+  <si>
+    <t>Torres Paez</t>
+  </si>
+  <si>
+    <t>Ramos Garcia</t>
+  </si>
+  <si>
+    <t>Paez Martinez</t>
+  </si>
+  <si>
+    <t>Herrera Garcia</t>
+  </si>
+  <si>
+    <t>Bastidas Rendón</t>
+  </si>
+  <si>
+    <t>Andrade Perez</t>
+  </si>
+  <si>
+    <t>Guzmán Salamanca</t>
+  </si>
+  <si>
+    <t>Soto Trilleras</t>
+  </si>
+  <si>
+    <t>Estupiñan Angarita</t>
+  </si>
+  <si>
+    <t>Rios Vargas</t>
+  </si>
+  <si>
+    <t>cod_sap</t>
+  </si>
+  <si>
+    <t>ceco</t>
+  </si>
+  <si>
+    <t>jefe</t>
+  </si>
+  <si>
+    <t>email_verified_at</t>
+  </si>
+  <si>
+    <t>Formación</t>
+  </si>
+  <si>
+    <t>PPC</t>
+  </si>
+  <si>
+    <t>Gerente General Ppc</t>
+  </si>
+  <si>
+    <t>diego.cruz@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Tegnologia</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>admin.sm@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Editorial</t>
+  </si>
+  <si>
+    <t>Jefe De Área Matemáticas</t>
+  </si>
+  <si>
+    <t>luz.stella.alfonso@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Jefe De Area De Lenguaje</t>
+  </si>
+  <si>
+    <t>norma.triana@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Comercial</t>
+  </si>
+  <si>
+    <t>Coordinador de formación y asesorías pedagógicas</t>
+  </si>
+  <si>
+    <t>andrea.perez@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Coordinador Formacion Y Asesoria Pedagogica</t>
+  </si>
+  <si>
+    <t>katherine.cruz@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Operaciones</t>
+  </si>
+  <si>
+    <t>Gerente De Operaciones</t>
+  </si>
+  <si>
+    <t>leonardo.vargas@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Director General</t>
+  </si>
+  <si>
+    <t>juan.perez@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Financiero</t>
+  </si>
+  <si>
+    <t>Director Administrativo Y Financiero</t>
+  </si>
+  <si>
+    <t>jeannette.salcedo@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Responsable Administrativa</t>
+  </si>
+  <si>
+    <t>jeniffer.duenas@ppc-editorial.com</t>
+  </si>
+  <si>
+    <t>Diseñador Senior</t>
+  </si>
+  <si>
+    <t>magaly.duque@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Gestor De Clientes</t>
+  </si>
+  <si>
+    <t>alberto.acosta@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>yimmy.forero@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>yuli.cortes@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>fernando.coronado@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Coordinador Promoción Y Ventas</t>
+  </si>
+  <si>
+    <t>jose.alfredo.romero@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>luis.cordoba@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Auxiliar Administrativo</t>
+  </si>
+  <si>
+    <t>jhon.ardila@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Responsable De Clientes</t>
+  </si>
+  <si>
+    <t>flor.ramirez@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>gloria.valencia@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>rolf.marin@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>paola.aponte@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>manuel.correa@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Coordinador Grandes Cuentas</t>
+  </si>
+  <si>
+    <t>carmen.arango@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>amanda.vega@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Coordinador De Inteligencia De Negocios</t>
+  </si>
+  <si>
+    <t>oscar.cardozo@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>gerardo.garcia@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Gerente De Promoción Y Ventas</t>
+  </si>
+  <si>
+    <t>luis.vargas@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Jefe SM Educamos</t>
+  </si>
+  <si>
+    <t>javier.lagos@educamos.com</t>
+  </si>
+  <si>
+    <t>cesar.avila@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Gerente Nacional De Promocion Y Ventas</t>
+  </si>
+  <si>
+    <t>javier.romero@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Consultor Lij</t>
+  </si>
+  <si>
+    <t>angela.daza@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>milton.lara@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Gerente De Producto</t>
+  </si>
+  <si>
+    <t>laura.pulido@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Asistente Administrativo</t>
+  </si>
+  <si>
+    <t>yeny.cuesto@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Jefe De Formación</t>
+  </si>
+  <si>
+    <t>ruby.quiroz@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Consultor Integral Sm</t>
+  </si>
+  <si>
+    <t>Consultor Integral SM</t>
+  </si>
+  <si>
+    <t>jhoy.perilla@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>gonzalo.valderrama@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Analista De Clientes</t>
+  </si>
+  <si>
+    <t>marco.soto@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>alberto.arbelaez@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Tecnología</t>
+  </si>
+  <si>
+    <t>wilmer.arias@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>ivan.arjona@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Jefe De Tesorería</t>
+  </si>
+  <si>
+    <t>barranquilla1@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Auxiliar Muestras</t>
+  </si>
+  <si>
+    <t>jenny.cediel@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Asistente De Producción Y Logístico</t>
+  </si>
+  <si>
+    <t>jhoanna.charris@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Asistente Editorial</t>
+  </si>
+  <si>
+    <t>eduar.gomez@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Jefe De Cartera Y Facturación</t>
+  </si>
+  <si>
+    <t>liz.gonzalez@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>john.llarave@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Responsable Tecnico De Aplicaciones Empresariales</t>
+  </si>
+  <si>
+    <t>macedonio.navarro@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>bryan.ordonez@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Analista Financiero Senior</t>
+  </si>
+  <si>
+    <t>diana.ortiz@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Responsable Sistemas</t>
+  </si>
+  <si>
+    <t>edwin.paez@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>liliana.pena@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>juan.piedrahita@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>andres.plata@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>richard.porras@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>nelson.quiroga@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Analista De Inventarios Y Transporte</t>
+  </si>
+  <si>
+    <t>ana.rivas@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>mayerli.rojas@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Analista Crm</t>
+  </si>
+  <si>
+    <t>heins.rosenhay@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>robinson.velasquez@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>alejandra.beltran@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Controller Financiero</t>
+  </si>
+  <si>
+    <t>pablo.fernandez@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Gerente Escuela Católica</t>
+  </si>
+  <si>
+    <t>juan.gutierres@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Auxiliar muestras inventario</t>
+  </si>
+  <si>
+    <t>johana.duarte@grupo-sm.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinadora de Formación Lenguaje </t>
+  </si>
+  <si>
+    <t>jean.sanchez@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Coordinador de formación y asesorías pedagógicas INGLÉS</t>
+  </si>
+  <si>
+    <t>Coordinación de Formación y Asesoría Pedagógica</t>
+  </si>
+  <si>
+    <t>aristides.pedrozo@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>rodrigo.sanchez@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Gestor de clientes</t>
+  </si>
+  <si>
+    <t>yerli.echavarria@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Gestora de Clientes</t>
+  </si>
+  <si>
+    <t>Gestor de Clientes</t>
+  </si>
+  <si>
+    <t>marien.aranibar@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Coordinadora Marketing</t>
+  </si>
+  <si>
+    <t>david.polo@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>Coordinador UDP</t>
+  </si>
+  <si>
+    <t>yolandamontenegro21@gmail.com</t>
+  </si>
+  <si>
+    <t>Comercial Delegación Bogotá</t>
+  </si>
+  <si>
+    <t>sandra.torres@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Coordinadora de Formación y Asesorías Pedagógicas UDP</t>
+  </si>
+  <si>
+    <t>leidy.ordonez@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>organización y personas</t>
+  </si>
+  <si>
+    <t>responsable de organización y personas</t>
+  </si>
+  <si>
+    <t>walberto.ramos@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>alvaro.herrera@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>patricia.gomez@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Responsable de Soporte Educativo</t>
+  </si>
+  <si>
+    <t>adriana.andrade@grupo-sm.com</t>
+  </si>
+  <si>
+    <t>Comercializadora SM S.A.S</t>
+  </si>
+  <si>
+    <t>SM Educación S.A</t>
+  </si>
+  <si>
+    <t>Comercializadora PPC S.A.S</t>
   </si>
 </sst>
 </file>
@@ -1853,8 +2880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A67" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="A67" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6031,7 +7058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -7148,4 +8175,3347 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="37" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="53" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="D2" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="J2" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K2" s="3">
+        <v>50000</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D3" s="3">
+        <v>39547760</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="J3" s="3">
+        <v>10643</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="L3" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="D4" s="3">
+        <v>51872356</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="J4" s="3">
+        <v>10920</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="L4" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D5" s="3">
+        <v>79619837</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3176552121</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="J5" s="3">
+        <v>10952</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="L5" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1016008521</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3183509648</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="J6" s="3">
+        <v>10969</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="L6" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1030585350</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3187069203</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="J7" s="3">
+        <v>10978</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="L7" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D8" s="3">
+        <v>775617</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10985</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="L8" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D9" s="3">
+        <v>80000515</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3175736072</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10991</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="L9" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D10" s="3">
+        <v>52241827</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3174408742</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J10" s="3">
+        <v>10993</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="L10" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1001116719</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="J11" s="3">
+        <v>11001</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="L11" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D12" s="3">
+        <v>52097912</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3173693838</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="J12" s="3">
+        <v>11002</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="L12" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1015407917</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3158800538</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="J13" s="3">
+        <v>30013</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="L13" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D14" s="3">
+        <v>51984840</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="J14" s="3">
+        <v>52379</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="L14" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="D15" s="3">
+        <v>8751004</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3176461598</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="J15" s="3">
+        <v>70017</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="L15" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D16" s="3">
+        <v>79743600</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3173697392</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="J16" s="3">
+        <v>70030</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="L16" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D17" s="3">
+        <v>52853321</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3164675985</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="J17" s="3">
+        <v>70053</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="L17" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D18" s="3">
+        <v>79608407</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3174314451</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="J18" s="3">
+        <v>70076</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="L18" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D19" s="3">
+        <v>91288847</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="J19" s="3">
+        <v>70082</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="L19" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D20" s="3">
+        <v>78688368</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3187069201</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="J20" s="3">
+        <v>70128</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="L20" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D21" s="3">
+        <v>84038980</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3187069152</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="J21" s="3">
+        <v>70156</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="L21" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D22" s="3">
+        <v>91228003</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="J22" s="3">
+        <v>70157</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="L22" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D23" s="3">
+        <v>33365300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3164715163</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="J23" s="3">
+        <v>70224</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="L23" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D24" s="3">
+        <v>34568449</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3174302939</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="J24" s="3">
+        <v>70347</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="L24" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D25" s="3">
+        <v>79575545</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3173635365</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="J25" s="3">
+        <v>70387</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="L25" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D26" s="3">
+        <v>52752896</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3162284971</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="J26" s="3">
+        <v>70401</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="L26" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D27" s="3">
+        <v>79746441</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3176578132</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="J27" s="3">
+        <v>70516</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="L27" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D28" s="3">
+        <v>43662761</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3156803584</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="J28" s="3">
+        <v>70536</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="L28" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D29" s="3">
+        <v>52057329</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3174029903</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="J29" s="3">
+        <v>70541</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="L29" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="D30" s="3">
+        <v>79792472</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="J30" s="3">
+        <v>70574</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="L30" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="D31" s="3">
+        <v>5604021</v>
+      </c>
+      <c r="E31" s="3">
+        <v>3174301156</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="J31" s="3">
+        <v>70579</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="L31" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="D32" s="3">
+        <v>79684646</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3164725919</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="J32" s="3">
+        <v>70585</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="L32" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="D33" s="3">
+        <v>79641504</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3174013971</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="J33" s="3">
+        <v>70643</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="L33" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D34" s="3">
+        <v>79729190</v>
+      </c>
+      <c r="E34" s="3">
+        <v>3173666515</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="J34" s="3">
+        <v>70652</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="L34" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D35" s="3">
+        <v>72000319</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3164682356</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="J35" s="3">
+        <v>70655</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="L35" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="D36" s="3">
+        <v>52270151</v>
+      </c>
+      <c r="E36" s="3">
+        <v>3173669976</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="J36" s="3">
+        <v>70668</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="L36" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D37" s="3">
+        <v>52532782</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3176578126</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="J37" s="3">
+        <v>70683</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="L37" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D38" s="3">
+        <v>72217845</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3158652995</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="J38" s="3">
+        <v>70688</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="L38" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D39" s="3">
+        <v>52394633</v>
+      </c>
+      <c r="E39" s="3">
+        <v>3162284942</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="J39" s="3">
+        <v>70702</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="L39" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1023913218</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="J40" s="3">
+        <v>70708</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="L40" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D41" s="3">
+        <v>32756412</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3176432269</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="J41" s="3">
+        <v>70718</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="L41" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1020718873</v>
+      </c>
+      <c r="E42" s="3">
+        <v>31766700764</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="J42" s="3">
+        <v>70730</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="L42" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D43" s="3">
+        <v>71374318</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3168789025</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="J43" s="3">
+        <v>70735</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="L43" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1022996124</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3164544292</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="J44" s="3">
+        <v>70772</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="L44" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1129573261</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3187069162</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="J45" s="3">
+        <v>70791</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="L45" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D46" s="3">
+        <v>73227155</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="J46" s="3">
+        <v>70804</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="L46" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1110467462</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3162287553</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="J47" s="3">
+        <v>70835</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="L47" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1019006431</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="J48" s="3">
+        <v>70878</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="L48" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D49" s="3">
+        <v>91533919</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3185311521</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="J49" s="3">
+        <v>70881</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="L49" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D50" s="3">
+        <v>9725730</v>
+      </c>
+      <c r="E50" s="3">
+        <v>3162284894</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="J50" s="3">
+        <v>70909</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="L50" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1023918697</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="J51" s="3">
+        <v>70911</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="L51" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1024535412</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="J52" s="3">
+        <v>70914</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="L52" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1081400042</v>
+      </c>
+      <c r="E53" s="3">
+        <v>3164682345</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="J53" s="3">
+        <v>70917</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="L53" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1106892158</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3164742470</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="J54" s="3">
+        <v>70920</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="L54" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="D55" s="3">
+        <v>80802741</v>
+      </c>
+      <c r="E55" s="3">
+        <v>3173644598</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="J55" s="3">
+        <v>70935</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="L55" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D56" s="3">
+        <v>52101107</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="J56" s="3">
+        <v>70936</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="L56" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1024505008</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3162285048</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="J57" s="3">
+        <v>70951</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="L57" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1030559052</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3174327904</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="J58" s="3">
+        <v>70956</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="L58" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="D59" s="3">
+        <v>32711392</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3164715160</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="J59" s="3">
+        <v>70962</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="L59" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1020747974</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3162322233</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="J60" s="3">
+        <v>70963</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="L60" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="D61" s="3">
+        <v>41939302</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3162285262</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="J61" s="3">
+        <v>70966</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="L61" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="D62" s="3">
+        <v>71363467</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="J62" s="3">
+        <v>70973</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="L62" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1121843963</v>
+      </c>
+      <c r="E63" s="3">
+        <v>3162285235</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J63" s="3">
+        <v>70979</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1102828643</v>
+      </c>
+      <c r="E64" s="3">
+        <v>3187069154</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="J64" s="3">
+        <v>71012</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="L64" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1016010035</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="J65" s="3">
+        <v>71017</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="L65" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="D66" s="3">
+        <v>80829071</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3464732959</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="J66" s="3">
+        <v>71018</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="L66" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="D67" s="3">
+        <v>467876</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="J67" s="3">
+        <v>71022</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="L67" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="D68" s="3">
+        <v>52896212</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="J68" s="3">
+        <v>71023</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="L68" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D69" s="3">
+        <v>51867095</v>
+      </c>
+      <c r="E69" s="3">
+        <v>3173005781</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="J69" s="3">
+        <v>71027</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="L69" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1129568117</v>
+      </c>
+      <c r="E70" s="3">
+        <v>3164682342</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="J70" s="3">
+        <v>71028</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="L70" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1012342560</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="J71" s="3">
+        <v>71031</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="L71" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1030536168</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3183305589</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="J72" s="3">
+        <v>71032</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="L72" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1020738221</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="J73" s="3">
+        <v>71033</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="L73" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D74" s="3">
+        <v>28556402</v>
+      </c>
+      <c r="E74" s="3">
+        <v>3164729527</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="J74" s="3">
+        <v>71034</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="L74" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="D75" s="3">
+        <v>1039597161</v>
+      </c>
+      <c r="E75" s="3">
+        <v>3173667327</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="J75" s="3">
+        <v>71036</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1051659990</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3187441346</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="J76" s="3">
+        <v>71039</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="L76" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D77" s="3">
+        <v>53894239</v>
+      </c>
+      <c r="E77" s="3">
+        <v>3162287454</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="J77" s="3">
+        <v>71040</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="L77" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1032401323</v>
+      </c>
+      <c r="E78" s="3">
+        <v>3176578125</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="J78" s="3">
+        <v>71041</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="L78" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D79" s="3">
+        <v>88281899</v>
+      </c>
+      <c r="E79" s="3">
+        <v>3176474653</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="J79" s="3">
+        <v>71043</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="L79" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D80" s="3">
+        <v>1000323533</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="J80" s="3">
+        <v>71044</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1000064676</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="J81" s="3">
+        <v>71046</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="D82" s="3">
+        <v>1000931051</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="J82" s="3">
+        <v>71047</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="D83" s="3">
+        <v>1015415008</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3162284944</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="J83" s="3">
+        <v>71050</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="L83" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="D84" s="3">
+        <v>1030551421</v>
+      </c>
+      <c r="E84" s="3">
+        <v>3175733682</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="J84" s="3">
+        <v>71052</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="L84" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="D85" s="3">
+        <v>1128048648</v>
+      </c>
+      <c r="E85" s="3">
+        <v>3174303986</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="J85" s="3">
+        <v>71054</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="L85" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D86" s="3">
+        <v>1030680948</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="J86" s="3">
+        <v>71060</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="L86" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D87" s="3">
+        <v>8736373</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="J87" s="3">
+        <v>71062</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="L87" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="D88" s="3">
+        <v>1114822766</v>
+      </c>
+      <c r="E88" s="3">
+        <v>3162285327</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="J88" s="3">
+        <v>71063</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="L88" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D89" s="3">
+        <v>25785060</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="J89" s="3">
+        <v>71064</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="L89" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D90" s="3">
+        <v>1012391986</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="J90" s="3">
+        <v>71065</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="L90" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D91" s="3">
+        <v>1022364998</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="J91" s="3">
+        <v>71066</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="L91" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D92" s="3">
+        <v>79504548</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="J92" s="3">
+        <v>71071</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="L92" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1000182927</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="J93" s="3">
+        <v>71074</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="L93" s="3">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:M93">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>